--- a/DOM_Banner/output/dept0713/Joao Paulo Albuquerque Ferreira_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Joao Paulo Albuquerque Ferreira_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386509311</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Health insurance prevalence and acute pancreatitis mortality: a cross-sectional analysis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Investigative Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/10815589231201328</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37674260</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/10815589231201328</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Universitas Airlangga, Indonesia; Universitas Airlangga, Indonesia; Universidade de Coimbra, Portugal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386947815</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Legal Protection and Liability for Multimodal Transport Operators in The Transport of Dangerous and Toxic Goods</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pandecta: Research Law Journal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>State University of Semarang</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.15294/pandecta.v18i1.42153</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-sa</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.15294/pandecta.v18i1.42153</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; National Research Center for Rehabilitation Technical Aids, Beijing, China; Institute of Superior of Engineering of Coimbra, Coimbra, Portugal; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387455780</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>A Rotary-Cage Valve (RCV) for Variable Damper in Prosthetic Knee</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Lecture Notes in Computer Science</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-981-99-6486-4_25</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-981-99-6486-4_25</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ;; University of Arizona, Tucson, AZ;; Jordanian Royal Medical Services, Amman, 'Amman, Jordan.; University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387734332</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>S1447 Alcoholic Liver Disease-Related Mortality in the United States: Tracing the Trend Line</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000955428.19481.22</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000955428.19481.22</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ;; University of Arizona–Banner University Medical Center, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ;; Jordanian Royal Medical Services, Amman, Amman, Jordan;; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387751921</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>S152 Health Insurance Prevalence &amp;amp; Acute Pancreatitis Mortality: A Cross-Sectional Analysis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000950248.07569.d5</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000950248.07569.d5</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Universidade Estadual de Santa Cruz (UESC), Ilhéus, BA, Brasil; Universidade Cidade de São Paulo (UNICID), São Paulo, SP, Brasil; Centro Universitário do Espírito Santo (UNESC), Colatina, ES, Brasil; Instituto Tocantinense Presidente Antônio Carlos, Araguaína, TO, Brasil; Universidade Potiguar (UnP), Belo Horizonte, MG, Brasil; Universidade Federal do Pará (UFPA), Belém, PA, Brasil</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388674724</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>PREVALÊNCIA E ÓBITOS DA INFECÇÃO MENINGOCÓCICA NA INFÂNCIA NO BRASIL ENTRE OS ANOS DE 2017 E 2022</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>The Brazilian Journal of Infectious Diseases</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.bjid.2023.103223</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>pt</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.bjid.2023.103223</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Joao Paulo Albuquerque Ferreira_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Joao Paulo Albuquerque Ferreira_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,62 +447,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Macklin Loveland, Elise Le Cam, Ramzi Ibrahim, José Ribeiro Ferreira</t>
+          <t>Milena Alves Barboza, José Ribeiro Ferreira, Geraldo Zanotelli Neto, Leydervan de Souza Xavier, Lucas Veras Rodrigues, Lucas Araújo Ferreira</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona</t>
+          <t>Universidade Estadual de Santa Cruz (UESC), Ilhéus, BA, Brasil; Universidade Cidade de São Paulo (UNICID), São Paulo, SP, Brasil; Centro Universitário do Espírito Santo (UNESC), Colatina, ES, Brasil; Instituto Tocantinense Presidente Antônio Carlos, Araguaína, TO, Brasil; Universidade Potiguar (UnP), Belo Horizonte, MG, Brasil; Universidade Federal do Pará (UFPA), Belém, PA, Brasil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386509311</t>
+          <t>https://openalex.org/W4388674724</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Health insurance prevalence and acute pancreatitis mortality: a cross-sectional analysis</t>
+          <t>PREVALÊNCIA E ÓBITOS DA INFECÇÃO MENINGOCÓCICA NA INFÂNCIA NO BRASIL ENTRE OS ANOS DE 2017 E 2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Journal of Investigative Medicine</t>
+          <t>The Brazilian Journal of Infectious Diseases</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/10815589231201328</t>
+          <t>https://doi.org/10.1016/j.bjid.2023.103223</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37674260</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/10815589231201328</t>
+          <t>https://doi.org/10.1016/j.bjid.2023.103223</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -534,57 +534,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hilda Yunita, Kresna Aron, José Ribeiro Ferreira</t>
+          <t>Macklin Loveland, Elise Le Cam, Ramzi Ibrahim, José Ribeiro Ferreira</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universitas Airlangga, Indonesia; Universitas Airlangga, Indonesia; Universidade de Coimbra, Portugal</t>
+          <t>Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona; Department of Medicine, University of Arizona - Banner University Medical Center, Tucson,_x000D_ Arizona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386947815</t>
+          <t>https://openalex.org/W4386509311</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Legal Protection and Liability for Multimodal Transport Operators in The Transport of Dangerous and Toxic Goods</t>
+          <t>Health insurance prevalence and acute pancreatitis mortality: a cross-sectional analysis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pandecta: Research Law Journal</t>
+          <t>Journal of Investigative Medicine</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>State University of Semarang</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15294/pandecta.v18i1.42153</t>
+          <t>https://doi.org/10.1177/10815589231201328</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>cc-by-sa</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37674260</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15294/pandecta.v18i1.42153</t>
+          <t>https://doi.org/10.1177/10815589231201328</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -621,57 +621,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fan Wang, Zhijiang Dai, Wenyu Li, Xiufeng Zhang, José Ribeiro Ferreira, Tao Liu</t>
+          <t>Hilda Yunita, Kresna Aron, José Ribeiro Ferreira</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; National Research Center for Rehabilitation Technical Aids, Beijing, China; Institute of Superior of Engineering of Coimbra, Coimbra, Portugal; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China</t>
+          <t>Universitas Airlangga, Indonesia; Universitas Airlangga, Indonesia; Universidade de Coimbra, Portugal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387455780</t>
+          <t>https://openalex.org/W4386947815</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A Rotary-Cage Valve (RCV) for Variable Damper in Prosthetic Knee</t>
+          <t>Legal Protection and Liability for Multimodal Transport Operators in The Transport of Dangerous and Toxic Goods</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lecture Notes in Computer Science</t>
+          <t>Pandecta: Research Law Journal</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>State University of Semarang</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-981-99-6486-4_25</t>
+          <t>https://doi.org/10.15294/pandecta.v18i1.42153</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-sa</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -696,54 +696,54 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-981-99-6486-4_25</t>
+          <t>https://doi.org/10.15294/pandecta.v18i1.42153</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elise Le Cam, Macklin Loveland, Mahek Shahid, Ala Kasrawi, Kristina Terrani, Ramzi Ibrahim, José Ribeiro Ferreira</t>
+          <t>Fan Wang, Zhijiang Dai, Wenyu Li, Xiufeng Zhang, José Ribeiro Ferreira, Tao Liu</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ;; University of Arizona, Tucson, AZ;; Jordanian Royal Medical Services, Amman, 'Amman, Jordan.; University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;</t>
+          <t>State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China; National Research Center for Rehabilitation Technical Aids, Beijing, China; Institute of Superior of Engineering of Coimbra, Coimbra, Portugal; State Key Laboratory of Fluid Power and Mechatronic Systems, School of Mechanical Engineering, Zhejiang University, Hangzhou, China</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387734332</t>
+          <t>https://openalex.org/W4387455780</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S1447 Alcoholic Liver Disease-Related Mortality in the United States: Tracing the Trend Line</t>
+          <t>A Rotary-Cage Valve (RCV) for Variable Damper in Prosthetic Knee</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The American Journal of Gastroenterology</t>
+          <t>Lecture Notes in Computer Science</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000955428.19481.22</t>
+          <t>https://doi.org/10.1007/978-981-99-6486-4_25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -783,34 +783,34 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000955428.19481.22</t>
+          <t>https://doi.org/10.1007/978-981-99-6486-4_25</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Macklin Loveland, Elise Le Cam, Richard Trieu, Ala Kasrawi, Ramzi Ibrahim, José Ribeiro Ferreira</t>
+          <t>Elise Le Cam, Macklin Loveland, Mahek Shahid, Ala Kasrawi, Kristina Terrani, Ramzi Ibrahim, José Ribeiro Ferreira</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>University of Arizona College of Medicine, Tucson, AZ;; University of Arizona–Banner University Medical Center, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ;; Jordanian Royal Medical Services, Amman, Amman, Jordan;; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.</t>
+          <t>University of Arizona, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ;; University of Arizona, Tucson, AZ;; Jordanian Royal Medical Services, Amman, 'Amman, Jordan.; University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387751921</t>
+          <t>https://openalex.org/W4387734332</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>S152 Health Insurance Prevalence &amp;amp; Acute Pancreatitis Mortality: A Cross-Sectional Analysis</t>
+          <t>S1447 Alcoholic Liver Disease-Related Mortality in the United States: Tracing the Trend Line</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000950248.07569.d5</t>
+          <t>https://doi.org/10.14309/01.ajg.0000955428.19481.22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000950248.07569.d5</t>
+          <t>https://doi.org/10.14309/01.ajg.0000955428.19481.22</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,22 +882,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Milena Alves Barboza, José Ribeiro Ferreira, Geraldo Zanotelli Neto, Leydervan de Souza Xavier, Lucas Veras Rodrigues, Lucas Araújo Ferreira</t>
+          <t>Macklin Loveland, Elise Le Cam, Richard Trieu, Ala Kasrawi, Ramzi Ibrahim, José Ribeiro Ferreira</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Universidade Estadual de Santa Cruz (UESC), Ilhéus, BA, Brasil; Universidade Cidade de São Paulo (UNICID), São Paulo, SP, Brasil; Centro Universitário do Espírito Santo (UNESC), Colatina, ES, Brasil; Instituto Tocantinense Presidente Antônio Carlos, Araguaína, TO, Brasil; Universidade Potiguar (UnP), Belo Horizonte, MG, Brasil; Universidade Federal do Pará (UFPA), Belém, PA, Brasil</t>
+          <t>University of Arizona College of Medicine, Tucson, AZ;; University of Arizona–Banner University Medical Center, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ;; Jordanian Royal Medical Services, Amman, Amman, Jordan;; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388674724</t>
+          <t>https://openalex.org/W4387751921</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PREVALÊNCIA E ÓBITOS DA INFECÇÃO MENINGOCÓCICA NA INFÂNCIA NO BRASIL ENTRE OS ANOS DE 2017 E 2022</t>
+          <t>S152 Health Insurance Prevalence &amp;amp; Acute Pancreatitis Mortality: A Cross-Sectional Analysis</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -907,22 +907,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The Brazilian Journal of Infectious Diseases</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bjid.2023.103223</t>
+          <t>https://doi.org/10.14309/01.ajg.0000950248.07569.d5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -932,12 +932,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -957,12 +957,99 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bjid.2023.103223</t>
+          <t>https://doi.org/10.14309/01.ajg.0000950248.07569.d5</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fernanda Coutinho, José Ribeiro Ferreira, Nuno Nogueira</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4391913442</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gait Patterns Analysis Using Pressure Plataforms</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lecture notes in bioengineering</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Springer International Publishing</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-47790-4_56</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-47790-4_56</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
